--- a/preparing_data_table.xlsx
+++ b/preparing_data_table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\MATLAB\digital signal processing\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Electromyography Project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7AD846-F3EB-49E2-89BE-7E99F1DD65FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D264113-172B-48A4-93F6-1CF9E2E790B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4790" yWindow="1950" windowWidth="14400" windowHeight="7360" xr2:uid="{9BFF40B5-B618-4B30-A7E3-401E81829A4A}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{C64E3FD1-4F4B-45C2-B70B-796F0B1C3DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -370,16 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822384E1-1BC5-49A4-81E1-1FFBEEB4DF14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B6FAA9-CA97-4E2B-85F3-65935D5C249C}">
   <dimension ref="A1:C308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -390,7 +390,7 @@
         <v>7.922087797547557E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,7 +401,7 @@
         <v>4.084305232422418E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -412,7 +412,7 @@
         <v>2.8389803805405332E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -423,7 +423,7 @@
         <v>2.7034402777877829E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -434,7 +434,7 @@
         <v>3.8985108875976004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -445,7 +445,7 @@
         <v>8.1006971523423354E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -456,7 +456,7 @@
         <v>6.0411636868468567E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -467,7 +467,7 @@
         <v>7.9808241082682755E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -478,7 +478,7 @@
         <v>9.1550562418018233E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>2.7101265481381358E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>2.8954225185185154E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -511,7 +511,7 @@
         <v>1.9572816976976938E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -522,7 +522,7 @@
         <v>3.2069687890990905E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1.0910992849489499E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -544,7 +544,7 @@
         <v>2.4722461637637642E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -555,7 +555,7 @@
         <v>2.4580104142132138E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1.987601584743745E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1.2842691627787818E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -588,7 +588,7 @@
         <v>2.9456121013413396E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -599,7 +599,7 @@
         <v>5.1964337370970946E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -610,7 +610,7 @@
         <v>4.5945784588989035E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -621,7 +621,7 @@
         <v>4.3885748775875965E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>3.5696260758258198E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -643,7 +643,7 @@
         <v>3.213767334174172E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -654,7 +654,7 @@
         <v>5.6103093333333348E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -665,7 +665,7 @@
         <v>2.657496090450445E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
         <v>3.6769903367267274E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -687,7 +687,7 @@
         <v>3.2851239513113067E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -698,7 +698,7 @@
         <v>3.6193999533933843E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
         <v>3.1629992744344232E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -720,7 +720,7 @@
         <v>3.595527274064069E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -731,7 +731,7 @@
         <v>4.5944776619719708E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1.0739123040950949E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
         <v>6.625103728838842E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -764,7 +764,7 @@
         <v>5.4754650448848863E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -775,7 +775,7 @@
         <v>3.2670889507107107E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -786,7 +786,7 @@
         <v>2.3420389361761824E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>2.50737432932932E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -808,7 +808,7 @@
         <v>7.2910507471871918E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1.5634691703863859E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1.1914393040790812E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
         <v>5.2985132830330314E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1.3816377428538551E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -863,7 +863,7 @@
         <v>5.8393304305905894E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -874,7 +874,7 @@
         <v>6.4246704014014021E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -885,7 +885,7 @@
         <v>5.0850346185285023E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -896,7 +896,7 @@
         <v>3.9654571063463626E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -907,7 +907,7 @@
         <v>3.6941556992092141E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -918,7 +918,7 @@
         <v>4.2896524723823734E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -929,7 +929,7 @@
         <v>5.1997422922822716E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -940,7 +940,7 @@
         <v>9.1873375599447332E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -951,7 +951,7 @@
         <v>5.6944179064635728E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -962,7 +962,7 @@
         <v>7.3587821117911427E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -973,7 +973,7 @@
         <v>9.1028259508205457E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -984,7 +984,7 @@
         <v>8.3925584392207896E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -995,7 +995,7 @@
         <v>1.0632404949739332E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>9.4653236573046251E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>8.1355106732383595E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>7.715615079668863E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>9.9397467646002678E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>8.1990852739713699E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>1.2387138879520782E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>8.9299812970284696E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>8.3062831854700588E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>9.8240803753051852E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>9.8529346514851651E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>9.7666678252802171E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>8.8206743839831618E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1.0906877852461661E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>8.6983157338099519E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>1.1265001631150172E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>9.3551101521561521E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>8.7000276396837564E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1.1709116415674179E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>8.3402547046244682E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>1.0216674976339032E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>1.0999846007410222E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>7.3106740608745056E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>9.6947156590658536E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>8.57865402735398E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>9.3477292560094852E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>8.1154203125169376E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>8.7235034328316547E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>8.9620872655420923E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>9.6494098185560418E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>9.5302097018862587E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>9.7801101552855724E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>9.5689878010876313E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>9.0213856657057421E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1.0664363034798325E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>1.0415887102312718E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1.1975090680279488E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>8.0735232784488204E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1.0845971409325153E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>8.4664291487077919E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1.0439475401754451E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>9.7309555196479283E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>8.7500619872176704E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>9.9565851007319666E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>9.8154038341748615E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>9.9552504078627667E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1.1493538865298168E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>9.3477508710714929E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>9.6532570668263363E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>9.3024607218841933E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>8.9492444025789219E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>9.7316933251688463E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>1.0168825879165712E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>1.2924527532362066E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>1.0813551208081813E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1.0491797139945537E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>8.622420817089662E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1.0618726573407056E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>9.3639359807502799E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1.0158926710001613E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>8.0058698990974914E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>8.900016582895541E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>1.1435740268725693E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1.7430993649059794E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>7.0218461459856342E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>9.127531800016438E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>9.5800984314173866E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1.0548311738030582E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>7.5763973439571895E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>7.3685685290300392E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>8.6696453833994165E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>8.6624685489497637E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>9.90956061199476E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>1.106517176912384E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>8.6883148949751122E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>8.1481571227339632E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>9.5893030348585123E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>9.9326841641842363E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>9.2254739654083172E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>8.9328839667523093E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>1.0769458259943328E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>8.1698135289999287E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1.0716379596129142E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>1.0570981008403185E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>8.4465494184766017E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>9.9494775394031558E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>9.5750193949660934E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>9.2475695782556159E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>8.822182461579826E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>9.0286266180609597E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>8.9342658435790697E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>8.6516420410189705E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>8.4610478654606521E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>9.7050772720215384E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>6.7938674156922405E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>9.7397987727005798E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>8.3701605214834187E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1.0968089463331058E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>8.6763387806443586E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>9.6366389622688838E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>9.118377801187974E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>1.0268216143277551E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>1.0817174281857014E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>1.0180771138673751E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>7.8532482983584995E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.21298424597034604</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>4.6850319640213148E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>4.2842759335320731E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>5.5152043726660965E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>6.0467306848209897E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>4.8014263823383981E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>6.2867746730130347E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>4.1172417573090071E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>5.7480505290420349E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>6.0896312297212318E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>5.2063034107693765E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>3.8506091372122402E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>5.6913277763078592E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>4.537667727560437E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>5.5943680876376765E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>5.6467765394510282E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>4.5684190564117128E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>5.6288397948806183E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>6.9318277397854872E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>3.620752293249474E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>5.1401289506967929E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>5.7151973844831012E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>4.5591658165367845E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>6.2463923738148179E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>3.7846058835665344E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>5.4767040539655282E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>6.3490069092900031E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>3.8840739994984934E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>5.8523957199936277E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>6.0198835428811534E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>3.7239673535837882E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>5.7621803364602799E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>3.7233878446331012E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>4.6231514497168731E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>3.7813562752023695E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>5.5666638902649952E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>4.9259870319304552E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>4.0279873739826756E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>4.7631758103740179E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>5.5585059490505483E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>4.7736076475599222E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>5.2764988946327994E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>5.881199430532065E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>3.6219166565317117E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>3</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>5.285043226634803E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>7.0058621526070994E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0.34480759893403751</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0.12779863152419202</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0.65219579152400142</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>2.2056600635788755</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>0.43980057191615946</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0.57387846975752932</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0.36250683878790685</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>3</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>0.41091048029596844</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>3</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0.43370697873854108</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>3</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0.38592197315923737</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0.28259792860051136</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0.32506166538691222</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>0.36387545194763626</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0.19776078947183193</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>3</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0.37198797654125648</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0.30178272447837567</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>3</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0.21506165007680322</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>3</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0.40517415811747864</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0.30152775983735708</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>3</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>0.31593349821858402</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>3</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0.24227259018366748</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>3</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0.33934162988416194</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0.21715538234748338</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0.24221680790468561</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0.2050658873418649</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0.18955631751455759</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>3</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0.2167658510827972</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>3</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>0.26933483351438192</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>0.12926444699139517</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>3</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>5.2937230515283346E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>3</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>6.142527295727869E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>3</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>3.9494027007153792E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>3</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>5.701036316006141E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>3</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>6.5243770715875088E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>3</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>4.8620772754134206E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>3</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>5.5357472780988168E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>3.9578744123241326E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>6.6524947938776544E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>3</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>4.8477950923793416E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>3</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>5.0015791122877448E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>4.2804406473408017E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>3</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>6.3487515060411642E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>5.2093983374823856E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>3</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>4.1927450755844559E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>3</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>6.440859355036041E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>4.2879141448031385E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>3</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>6.3963072445241576E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>3</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>4.9000772378066042E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>3</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>6.0624719180547675E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>3.7771146408735246E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>3</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>5.9771577372287089E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>4.5483493678992924E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>5.546253585390442E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>3</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>5.594523717794668E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>3</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>4.4122338828107739E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>3</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>5.9333915381736539E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>3</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>3.7901970695101504E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>3</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>6.2567733648410229E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>4.9120061468292821E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>4.2762124974120831E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>3</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>5.0117690546710135E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>3.3600970840859057E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>3</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>5.5438103225387572E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>3</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>4.2922051174445065E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>3</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>4.3677768101388334E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>3</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>5.4260762180177551E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>3</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>3.6564165726116232E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>5.5735584096015478E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>3</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>5.6098042913871687E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>3</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>5.7652440273606331E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>3</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>4.4717163947835585E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>4.9086288916458991E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>3</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>5.1206269081000476E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>7.0054325587353389E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>0.29178051622089823</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>3</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>0.109578902977922</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>3</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0.89888168219025866</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>3</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>1.6104684708128083</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>3</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0.5160761387289019</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>3</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0.48913397502311595</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>3</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0.38954279462978142</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>3</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0.46058227069975494</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>3</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0.3643576123137045</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>3</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0.42966392721053909</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>3</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0.28723321127857493</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>0.28352920528882236</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>3</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0.33047623822095507</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>3</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0.22042513888500184</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>3</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0.37852110470687605</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>3</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0.27825791894388585</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0.27311821431381295</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>3</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0.32818337856374785</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>3</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0.30578668769093886</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>3</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0.3226610781516594</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>3</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0.27537994033496282</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>3</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0.3030669302062195</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>3</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.23009993020445071</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0.24550532644676518</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>3</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0.20175057619974196</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>3</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0.18150704609491786</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>3</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>0.20956038681846115</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>3</v>
       </c>
